--- a/config/test_config3.xlsx
+++ b/config/test_config3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a83h8zz\Programming2018\site-config-parser\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5788F28-DC82-4BC7-9459-8FED9161F958}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED204A8C-19AC-4E4F-A9A0-E551557846A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9720" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <definedName name="YesNo" localSheetId="1">Lists!#REF!</definedName>
     <definedName name="YesNo">Lists!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1583,10 +1583,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Commercial-Solutions/?N=5002385+8709314+8710653+8711017+8733508&amp;rt=r3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://fuzeauth.3m.com/wps/myportal/en_IN/$project/GMS-85_CommercialCleaning_IN_SSN/3M/commercial-cleaning-in/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1611,6 +1607,9 @@
   </si>
   <si>
     <t>wtff</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Commercial-Solutions/?N=5002385+8709314+8710653+8711017+8733508&amp;rt=r3</t>
   </si>
 </sst>
 </file>
@@ -2916,8 +2915,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:B72"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2956,7 +2955,7 @@
         <v>108</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="43"/>
     </row>
@@ -2965,7 +2964,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C4" s="43"/>
     </row>
@@ -2974,7 +2973,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C5" s="43"/>
     </row>
@@ -2983,7 +2982,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C6" s="43"/>
     </row>
@@ -3412,7 +3411,7 @@
         <v>406</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3524,7 +3523,7 @@
         <v>102</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C72" s="15"/>
     </row>
@@ -3580,7 +3579,7 @@
         <v>421</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3613,7 +3612,7 @@
         <v>424</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3734,7 +3733,7 @@
         <v>403</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="1:3">
